--- a/excelFiles/testing.xlsx
+++ b/excelFiles/testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TechnoCredits\Batches\July21\SeleniumTechnoJuly2021\excelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B636B86-4594-47ED-8403-2C1FC4833CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E6AE5F-5811-440F-8EE1-F8476DBBEC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>test</t>
   </si>
@@ -50,10 +50,19 @@
     <t>mobile</t>
   </si>
   <si>
-    <t>ruby</t>
-  </si>
-  <si>
     <t>calabash</t>
+  </si>
+  <si>
+    <t>testcafe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4/11/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3/12/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3/9/2020</t>
   </si>
 </sst>
 </file>
@@ -89,8 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,13 +381,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -406,14 +419,48 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>56</v>
+      </c>
+      <c r="C4">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
